--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Tarefas</t>
   </si>
@@ -46,7 +46,10 @@
     <t xml:space="preserve">Desenvolvimento do Banco de Dados de acordo</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento do BackEnd com Prisma, middlewares, rotas http, testes pelo insomnia</t>
+    <t xml:space="preserve">Desenvolvimento do BackEnd com Prisma, rotas http, testes pelo insomnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementação do JWT como forma de segurança</t>
   </si>
   <si>
     <t xml:space="preserve">Desenvolvimento do FrontEnd das páginas, CSS, HTML, javascript, requisições com fetch  </t>
@@ -221,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -283,6 +286,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,10 +410,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:AG20"/>
+  <dimension ref="A3:AG21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -736,7 +747,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -769,29 +780,29 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
@@ -811,15 +822,15 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="6"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
@@ -828,41 +839,77 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q17" s="21"/>
+      <c r="B15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S20" s="21"/>
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\AgroTech Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D75847-8E90-4B53-80C5-AAD97901E4E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cronograma" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,57 +27,56 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">Tarefas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prazos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fevereiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Março</t>
+    <t>Tarefas</t>
+  </si>
+  <si>
+    <t>Prazos</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
   </si>
   <si>
     <t xml:space="preserve">Documentação do projeto </t>
   </si>
   <si>
-    <t xml:space="preserve">Concordância com o cliente sobre a documentação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparação do time de desenvolvimento (computadores, WorkSpace, etc...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento do Banco de Dados de acordo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento do BackEnd com Prisma, rotas http, testes pelo insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementação do JWT como forma de segurança</t>
+    <t>Concordância com o cliente sobre a documentação</t>
+  </si>
+  <si>
+    <t>Preparação do time de desenvolvimento (computadores, WorkSpace, etc...)</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do Banco de Dados de acordo</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do BackEnd com Prisma, rotas http, testes pelo insomnia</t>
+  </si>
+  <si>
+    <t>Implementação do JWT como forma de segurança</t>
   </si>
   <si>
     <t xml:space="preserve">Desenvolvimento do FrontEnd das páginas, CSS, HTML, javascript, requisições com fetch  </t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento do Mobile  utilizando UseEffect para requisições, UseState para inputs, e estilizando</t>
+    <t>Desenvolvimento do Mobile  utilizando UseEffect para requisições, UseState para inputs, e estilizando</t>
   </si>
   <si>
     <t xml:space="preserve">Tarefas Realizadas </t>
   </si>
   <si>
-    <t xml:space="preserve">Tarefas a Fazer</t>
+    <t>Tarefas a Fazer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-416]General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-416]General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,22 +85,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -118,7 +107,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,187 +150,154 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -400,30 +356,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AG21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="98.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="3" style="1" width="2.71"/>
+    <col min="2" max="2" width="98.140625" style="5" customWidth="1"/>
+    <col min="3" max="33" width="2.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -460,141 +724,141 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2"/>
-      <c r="C5" s="6" t="n">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="6">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>20</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>21</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="6">
         <v>22</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="6">
         <v>23</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="6">
         <v>24</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="6">
         <v>25</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="6">
         <v>26</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="6">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="P5" s="7">
         <v>28</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="8">
         <v>1</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="6">
         <v>2</v>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="6">
         <v>3</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="T5" s="6">
         <v>4</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="6">
         <v>5</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="V5" s="6">
         <v>6</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="W5" s="6">
         <v>7</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="X5" s="6">
         <v>8</v>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Y5" s="6">
         <v>9</v>
       </c>
-      <c r="Z5" s="6" t="n">
+      <c r="Z5" s="6">
         <v>10</v>
       </c>
-      <c r="AA5" s="6" t="n">
+      <c r="AA5" s="6">
         <v>11</v>
       </c>
-      <c r="AB5" s="6" t="n">
+      <c r="AB5" s="6">
         <v>12</v>
       </c>
-      <c r="AC5" s="6" t="n">
+      <c r="AC5" s="6">
         <v>13</v>
       </c>
-      <c r="AD5" s="6" t="n">
+      <c r="AD5" s="6">
         <v>14</v>
       </c>
-      <c r="AE5" s="6" t="n">
+      <c r="AE5" s="6">
         <v>15</v>
       </c>
-      <c r="AF5" s="6" t="n">
+      <c r="AF5" s="6">
         <v>16</v>
       </c>
-      <c r="AG5" s="6" t="n">
+      <c r="AG5" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
@@ -630,7 +894,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
@@ -666,7 +930,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
@@ -702,7 +966,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
@@ -738,7 +1002,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
@@ -748,7 +1012,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -774,7 +1038,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
@@ -784,7 +1048,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="16"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -810,7 +1074,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
@@ -846,7 +1110,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
@@ -882,33 +1146,33 @@
       <c r="AF13" s="13"/>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="21"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="12:19" x14ac:dyDescent="0.25">
       <c r="Q18" s="23"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="12:19" x14ac:dyDescent="0.25">
       <c r="Q19" s="23"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L20" s="26"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="12:19" x14ac:dyDescent="0.25">
       <c r="S21" s="23"/>
     </row>
   </sheetData>
@@ -918,12 +1182,7 @@
     <mergeCell ref="C4:P4"/>
     <mergeCell ref="Q4:AG4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\AgroTech Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D75847-8E90-4B53-80C5-AAD97901E4E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EDC6A4-5721-4740-99C6-279A4CB796DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Desenvolvimento do BackEnd com Prisma, rotas http, testes pelo insomnia</t>
   </si>
   <si>
-    <t>Implementação do JWT como forma de segurança</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desenvolvimento do FrontEnd das páginas, CSS, HTML, javascript, requisições com fetch  </t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Tarefas a Fazer</t>
+  </si>
+  <si>
+    <t>Implementação do JWT no BackEnd como forma de segurança no login e sistema de gerenciamento personalizado com base na role</t>
   </si>
 </sst>
 </file>
@@ -223,20 +223,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -291,6 +279,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,503 +686,503 @@
   <dimension ref="A3:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="98.140625" style="5" customWidth="1"/>
-    <col min="3" max="33" width="2.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="129.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="33" width="2.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="1" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="6">
+      <c r="B5" s="24"/>
+      <c r="C5" s="2">
         <v>15</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>16</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>18</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>19</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>20</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="2">
         <v>21</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="2">
         <v>22</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="2">
         <v>23</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="2">
         <v>24</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="2">
         <v>25</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="2">
         <v>26</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="2">
         <v>27</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="3">
         <v>28</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="4">
         <v>1</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="2">
         <v>2</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="2">
         <v>3</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="2">
         <v>4</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="2">
         <v>5</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="2">
         <v>6</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="2">
         <v>7</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="2">
         <v>8</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="2">
         <v>9</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="2">
         <v>10</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="2">
         <v>11</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="2">
         <v>12</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="2">
         <v>13</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="2">
         <v>14</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="2">
         <v>15</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="2">
         <v>16</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="6"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="18" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="Q18" s="23"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="Q19" s="23"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L20" s="26"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="S21" s="23"/>
+      <c r="S21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1183,6 +1192,6 @@
     <mergeCell ref="Q4:AG4"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\AgroTech Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EDC6A4-5721-4740-99C6-279A4CB796DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7463B070-FD86-43C1-9341-8F0980817744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,6 +280,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,15 +300,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +686,7 @@
   <dimension ref="A3:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,83 +696,83 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="27" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="2">
         <v>15</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2"/>
@@ -1056,10 +1056,10 @@
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1095,10 +1095,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
       <c r="O12" s="9"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="11"/>

--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\AgroTech Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7463B070-FD86-43C1-9341-8F0980817744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B96F22-92C6-4808-818A-1209BEB53DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>Tarefas</t>
   </si>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -301,6 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +687,7 @@
   <dimension ref="A3:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1023,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -1172,16 +1173,17 @@
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
     </row>
-    <row r="18" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="Q18" s="19"/>
     </row>
-    <row r="19" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="Q19" s="19"/>
     </row>
-    <row r="20" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="31"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="12:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="S21" s="19"/>
     </row>
   </sheetData>

--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -224,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -297,14 +297,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,10 +322,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,8 +408,8 @@
   </sheetPr>
   <dimension ref="A3:AG21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ16" activeCellId="0" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -761,7 +749,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="13"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
@@ -791,13 +779,13 @@
       <c r="E11" s="6"/>
       <c r="F11" s="17"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
@@ -830,15 +818,15 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="13"/>
-      <c r="S12" s="20"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
@@ -891,34 +879,33 @@
       <c r="AG13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q18" s="24"/>
+      <c r="Q18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q19" s="24"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="27"/>
-      <c r="L20" s="28"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S21" s="24"/>
+      <c r="S21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\AgroTech Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A95BD9D-4AC5-4C95-9BDF-153C9DB7462C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cronograma" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,59 +25,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">Tarefas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prazos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fevereiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Março</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+  <si>
+    <t>Tarefas</t>
+  </si>
+  <si>
+    <t>Prazos</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
   </si>
   <si>
     <t xml:space="preserve">Documentação do projeto </t>
   </si>
   <si>
-    <t xml:space="preserve">Concordância com o cliente sobre a documentação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparação do time de desenvolvimento (computadores, WorkSpace, etc...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento do Banco de Dados de acordo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento do BackEnd com Prisma, rotas http, testes pelo insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementação do JWT no BackEnd como forma de segurança no login e sistema de gerenciamento personalizado com base na role</t>
+    <t>Concordância com o cliente sobre a documentação</t>
+  </si>
+  <si>
+    <t>Preparação do time de desenvolvimento (computadores, WorkSpace, etc...)</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do Banco de Dados de acordo</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do BackEnd com Prisma, rotas http, testes pelo insomnia</t>
+  </si>
+  <si>
+    <t>Implementação do JWT no BackEnd como forma de segurança no login e sistema de gerenciamento personalizado com base na role</t>
   </si>
   <si>
     <t xml:space="preserve">Desenvolvimento do FrontEnd das páginas, CSS, HTML, javascript, requisições com fetch  </t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento do Mobile  utilizando UseEffect para requisições, UseState para inputs, e estilizando</t>
+    <t>Desenvolvimento do Mobile  utilizando UseEffect para requisições, UseState para inputs, e estilizando</t>
   </si>
   <si>
     <t xml:space="preserve">Tarefas Realizadas </t>
   </si>
   <si>
-    <t xml:space="preserve">Tarefas a Fazer</t>
+    <t>Tarefas a Fazer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-416]General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-416]General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,22 +85,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -118,7 +107,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,183 +150,154 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -396,30 +356,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AG21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ16" activeCellId="0" sqref="AJ16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="129.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="3" style="1" width="2.71"/>
+    <col min="2" max="2" width="129.28515625" style="5" customWidth="1"/>
+    <col min="3" max="33" width="2.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -456,141 +724,141 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2"/>
-      <c r="C5" s="6" t="n">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="6">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>20</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>21</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="6">
         <v>22</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="6">
         <v>23</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="6">
         <v>24</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="6">
         <v>25</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="6">
         <v>26</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="6">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="P5" s="7">
         <v>28</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="8">
         <v>1</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="6">
         <v>2</v>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="6">
         <v>3</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="T5" s="6">
         <v>4</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="6">
         <v>5</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="V5" s="6">
         <v>6</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="W5" s="6">
         <v>7</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="X5" s="6">
         <v>8</v>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Y5" s="6">
         <v>9</v>
       </c>
-      <c r="Z5" s="6" t="n">
+      <c r="Z5" s="6">
         <v>10</v>
       </c>
-      <c r="AA5" s="6" t="n">
+      <c r="AA5" s="6">
         <v>11</v>
       </c>
-      <c r="AB5" s="6" t="n">
+      <c r="AB5" s="6">
         <v>12</v>
       </c>
-      <c r="AC5" s="6" t="n">
+      <c r="AC5" s="6">
         <v>13</v>
       </c>
-      <c r="AD5" s="6" t="n">
+      <c r="AD5" s="6">
         <v>14</v>
       </c>
-      <c r="AE5" s="6" t="n">
+      <c r="AE5" s="6">
         <v>15</v>
       </c>
-      <c r="AF5" s="6" t="n">
+      <c r="AF5" s="6">
         <v>16</v>
       </c>
-      <c r="AG5" s="6" t="n">
+      <c r="AG5" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
@@ -626,7 +894,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
@@ -662,7 +930,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
@@ -698,7 +966,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
@@ -734,7 +1002,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
@@ -750,7 +1018,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="6"/>
@@ -770,7 +1038,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
@@ -786,7 +1054,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="6"/>
@@ -806,14 +1074,14 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -822,7 +1090,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="13"/>
+      <c r="O12" s="27"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="13"/>
@@ -842,7 +1110,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
@@ -878,33 +1146,33 @@
       <c r="AF13" s="13"/>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="12:19" x14ac:dyDescent="0.25">
       <c r="Q18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="12:19" x14ac:dyDescent="0.25">
       <c r="Q19" s="22"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L20" s="25"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="12:19" x14ac:dyDescent="0.25">
       <c r="S21" s="22"/>
     </row>
   </sheetData>
@@ -914,12 +1182,7 @@
     <mergeCell ref="C4:P4"/>
     <mergeCell ref="Q4:AG4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\AgroTech Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A95BD9D-4AC5-4C95-9BDF-153C9DB7462C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C572B1DA-27A9-44C8-83E8-82F7A0BD3DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,18 +225,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -258,12 +246,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -290,6 +272,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -677,503 +677,503 @@
   <dimension ref="A3:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="129.28515625" style="5" customWidth="1"/>
-    <col min="3" max="33" width="2.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="129.28515625" style="1" customWidth="1"/>
+    <col min="3" max="33" width="2.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="1" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="6">
+      <c r="B5" s="22"/>
+      <c r="C5" s="2">
         <v>15</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>16</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>18</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>19</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>20</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="2">
         <v>21</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="2">
         <v>22</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="2">
         <v>23</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="2">
         <v>24</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="2">
         <v>25</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="2">
         <v>26</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="2">
         <v>27</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="3">
         <v>28</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="4">
         <v>1</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="2">
         <v>2</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="2">
         <v>3</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="2">
         <v>4</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="2">
         <v>5</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="2">
         <v>6</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="2">
         <v>7</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="2">
         <v>8</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="2">
         <v>9</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="2">
         <v>10</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="2">
         <v>11</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="2">
         <v>12</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="2">
         <v>13</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="2">
         <v>14</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="2">
         <v>15</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="2">
         <v>16</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="2"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="18" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="Q18" s="22"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="Q19" s="22"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L20" s="25"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="S21" s="22"/>
+      <c r="S21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -404,8 +404,8 @@
   </sheetPr>
   <dimension ref="A3:AG21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T12" activeCellId="0" sqref="T12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -823,7 +823,7 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="12"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="17"/>
+      <c r="T12" s="12"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
@@ -859,7 +859,7 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="16"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="17"/>
+      <c r="T13" s="12"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>

--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A3:AG21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
+      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,8 +824,8 @@
       <c r="R12" s="12"/>
       <c r="S12" s="11"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
@@ -861,7 +861,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="12"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
+      <c r="V13" s="12"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="17"/>

--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\AgroTech Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9461E42-8356-46A5-9E34-A84D6F1E7EEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cronograma" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,57 +27,56 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">Tarefas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prazos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fevereiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Março</t>
+    <t>Tarefas</t>
+  </si>
+  <si>
+    <t>Prazos</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
   </si>
   <si>
     <t xml:space="preserve">Documentação do projeto </t>
   </si>
   <si>
-    <t xml:space="preserve">Concordância com o cliente sobre a documentação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparação do time de desenvolvimento (computadores, WorkSpace, etc...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento do Banco de Dados de acordo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento do BackEnd com Prisma, rotas http, testes pelo insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementação do JWT no BackEnd como forma de segurança no login e sistema de gerenciamento personalizado com base na role</t>
+    <t>Concordância com o cliente sobre a documentação</t>
+  </si>
+  <si>
+    <t>Preparação do time de desenvolvimento (computadores, WorkSpace, etc...)</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do Banco de Dados de acordo</t>
+  </si>
+  <si>
+    <t>Desenvolvimento do BackEnd com Prisma, rotas http, testes pelo insomnia</t>
+  </si>
+  <si>
+    <t>Implementação do JWT no BackEnd como forma de segurança no login e sistema de gerenciamento personalizado com base na role</t>
   </si>
   <si>
     <t xml:space="preserve">Desenvolvimento do FrontEnd das páginas, CSS, HTML, javascript, requisições com fetch  </t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento do Mobile  utilizando UseEffect para requisições, UseState para inputs, e estilizando</t>
+    <t>Desenvolvimento do Mobile  utilizando UseEffect para requisições, UseState para inputs, e estilizando</t>
   </si>
   <si>
     <t xml:space="preserve">Tarefas Realizadas </t>
   </si>
   <si>
-    <t xml:space="preserve">Tarefas a Fazer</t>
+    <t>Tarefas a Fazer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-416]General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-416]General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -81,22 +85,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -118,7 +107,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,179 +150,148 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -392,30 +350,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AG21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="129.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="3" style="1" width="2.71"/>
+    <col min="2" max="2" width="129.28515625" style="5" customWidth="1"/>
+    <col min="3" max="33" width="2.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -452,141 +718,141 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2"/>
-      <c r="C5" s="6" t="n">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="6">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>20</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>21</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="6">
         <v>22</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="6">
         <v>23</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="6">
         <v>24</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="6">
         <v>25</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="6">
         <v>26</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="6">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="P5" s="7">
         <v>28</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="8">
         <v>1</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="6">
         <v>2</v>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="6">
         <v>3</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="T5" s="6">
         <v>4</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="U5" s="6">
         <v>5</v>
       </c>
-      <c r="V5" s="6" t="n">
+      <c r="V5" s="6">
         <v>6</v>
       </c>
-      <c r="W5" s="6" t="n">
+      <c r="W5" s="6">
         <v>7</v>
       </c>
-      <c r="X5" s="6" t="n">
+      <c r="X5" s="6">
         <v>8</v>
       </c>
-      <c r="Y5" s="6" t="n">
+      <c r="Y5" s="6">
         <v>9</v>
       </c>
-      <c r="Z5" s="6" t="n">
+      <c r="Z5" s="6">
         <v>10</v>
       </c>
-      <c r="AA5" s="6" t="n">
+      <c r="AA5" s="6">
         <v>11</v>
       </c>
-      <c r="AB5" s="6" t="n">
+      <c r="AB5" s="6">
         <v>12</v>
       </c>
-      <c r="AC5" s="6" t="n">
+      <c r="AC5" s="6">
         <v>13</v>
       </c>
-      <c r="AD5" s="6" t="n">
+      <c r="AD5" s="6">
         <v>14</v>
       </c>
-      <c r="AE5" s="6" t="n">
+      <c r="AE5" s="6">
         <v>15</v>
       </c>
-      <c r="AF5" s="6" t="n">
+      <c r="AF5" s="6">
         <v>16</v>
       </c>
-      <c r="AG5" s="6" t="n">
+      <c r="AG5" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
@@ -622,7 +888,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
@@ -658,7 +924,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
@@ -694,7 +960,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
@@ -730,7 +996,7 @@
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
@@ -766,7 +1032,7 @@
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
@@ -802,7 +1068,7 @@
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
@@ -826,8 +1092,8 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
@@ -838,7 +1104,7 @@
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
@@ -860,10 +1126,10 @@
       <c r="R13" s="16"/>
       <c r="S13" s="6"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="17"/>
+      <c r="U13" s="25"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
@@ -874,33 +1140,33 @@
       <c r="AF13" s="17"/>
       <c r="AG13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="12:19" x14ac:dyDescent="0.25">
       <c r="Q18" s="21"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="12:19" x14ac:dyDescent="0.25">
       <c r="Q19" s="21"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L20" s="24"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="12:19" x14ac:dyDescent="0.25">
       <c r="S21" s="21"/>
     </row>
   </sheetData>
@@ -910,12 +1176,7 @@
     <mergeCell ref="C4:P4"/>
     <mergeCell ref="Q4:AG4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/AgroTech Documentos/Cronograma.xlsx
+++ b/AgroTech Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\AgroTech Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9461E42-8356-46A5-9E34-A84D6F1E7EEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFACCB1-37DA-41B9-9DC0-8390599B9C72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>Tarefas</t>
   </si>
@@ -223,20 +223,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -267,9 +255,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -284,6 +269,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -670,504 +667,504 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="129.28515625" style="5" customWidth="1"/>
-    <col min="3" max="33" width="2.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="129.28515625" style="1" customWidth="1"/>
+    <col min="3" max="33" width="2.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="1" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="6">
+      <c r="B5" s="21"/>
+      <c r="C5" s="2">
         <v>15</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>16</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>18</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>19</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>20</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="2">
         <v>21</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="2">
         <v>22</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="2">
         <v>23</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="2">
         <v>24</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="2">
         <v>25</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="2">
         <v>26</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="2">
         <v>27</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="3">
         <v>28</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="4">
         <v>1</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="2">
         <v>2</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="2">
         <v>3</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="2">
         <v>4</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="2">
         <v>5</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="2">
         <v>6</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="2">
         <v>7</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="2">
         <v>8</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="2">
         <v>9</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="2">
         <v>10</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="2">
         <v>11</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="2">
         <v>12</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="2">
         <v>13</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="2">
         <v>14</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="2">
         <v>15</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="2">
         <v>16</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="2"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="18" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="Q18" s="21"/>
+      <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="Q19" s="21"/>
+      <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L20" s="24"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="S21" s="21"/>
+      <c r="S21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
